--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value63.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value63.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6214184066001517</v>
+        <v>1.788428902626038</v>
       </c>
       <c r="B1">
-        <v>0.9777180077744297</v>
+        <v>1.892302393913269</v>
       </c>
       <c r="C1">
-        <v>1.983480604128038</v>
+        <v>2.293514728546143</v>
       </c>
       <c r="D1">
-        <v>2.450507905482593</v>
+        <v>2.158591270446777</v>
       </c>
       <c r="E1">
-        <v>2.852521854366819</v>
+        <v>3.037123680114746</v>
       </c>
     </row>
   </sheetData>
